--- a/optimize/Axiory/covid/MA35/NIKKEI/M5/matrix_NIKKEI_M5_MA35_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA35/NIKKEI/M5/matrix_NIKKEI_M5_MA35_2020_1.xlsx
@@ -444,31 +444,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>4488</v>
+        <v>4498</v>
       </c>
       <c r="C2">
-        <v>2532</v>
+        <v>2542</v>
       </c>
       <c r="D2">
-        <v>-580</v>
+        <v>-570</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F2">
-        <v>4712</v>
+        <v>4722</v>
       </c>
       <c r="G2">
-        <v>5024</v>
+        <v>5034</v>
       </c>
       <c r="H2">
-        <v>-2554</v>
+        <v>-2544</v>
       </c>
       <c r="I2">
-        <v>-1940</v>
+        <v>-1930</v>
       </c>
       <c r="J2">
-        <v>-5552</v>
+        <v>-5542</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>3720</v>
+        <v>3730</v>
       </c>
       <c r="C3">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="D3">
-        <v>7310</v>
+        <v>7320</v>
       </c>
       <c r="E3">
-        <v>2930</v>
+        <v>2940</v>
       </c>
       <c r="F3">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="G3">
-        <v>-1412</v>
+        <v>-1402</v>
       </c>
       <c r="H3">
-        <v>6366</v>
+        <v>6376</v>
       </c>
       <c r="I3">
-        <v>-186</v>
+        <v>-176</v>
       </c>
       <c r="J3">
-        <v>-6306</v>
+        <v>-6296</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>3820</v>
+        <v>3830</v>
       </c>
       <c r="C4">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="D4">
-        <v>4226</v>
+        <v>4236</v>
       </c>
       <c r="E4">
-        <v>3604</v>
+        <v>3614</v>
       </c>
       <c r="F4">
-        <v>-1366</v>
+        <v>-1356</v>
       </c>
       <c r="G4">
-        <v>-4252</v>
+        <v>-4242</v>
       </c>
       <c r="H4">
-        <v>-204</v>
+        <v>-194</v>
       </c>
       <c r="I4">
-        <v>13660</v>
+        <v>13670</v>
       </c>
       <c r="J4">
-        <v>-12</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="C5">
-        <v>-1098</v>
+        <v>-1088</v>
       </c>
       <c r="D5">
-        <v>2286</v>
+        <v>2296</v>
       </c>
       <c r="E5">
-        <v>4146</v>
+        <v>4156</v>
       </c>
       <c r="F5">
-        <v>6882</v>
+        <v>6892</v>
       </c>
       <c r="G5">
-        <v>4776</v>
+        <v>4786</v>
       </c>
       <c r="H5">
-        <v>5358</v>
+        <v>5368</v>
       </c>
       <c r="I5">
-        <v>12486</v>
+        <v>12496</v>
       </c>
       <c r="J5">
-        <v>7938</v>
+        <v>7948</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>3128</v>
+        <v>3138</v>
       </c>
       <c r="C6">
-        <v>-1312</v>
+        <v>-1302</v>
       </c>
       <c r="D6">
-        <v>5202</v>
+        <v>5212</v>
       </c>
       <c r="E6">
-        <v>7132</v>
+        <v>7142</v>
       </c>
       <c r="F6">
-        <v>6526</v>
+        <v>6536</v>
       </c>
       <c r="G6">
-        <v>6972</v>
+        <v>6982</v>
       </c>
       <c r="H6">
-        <v>5968</v>
+        <v>5978</v>
       </c>
       <c r="I6">
-        <v>9484</v>
+        <v>9494</v>
       </c>
       <c r="J6">
-        <v>9010</v>
+        <v>9020</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -604,31 +604,31 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>1964</v>
+        <v>1974</v>
       </c>
       <c r="C7">
-        <v>-1592</v>
+        <v>-1582</v>
       </c>
       <c r="D7">
-        <v>8874</v>
+        <v>8884</v>
       </c>
       <c r="E7">
-        <v>7354</v>
+        <v>7364</v>
       </c>
       <c r="F7">
-        <v>9002</v>
+        <v>9012</v>
       </c>
       <c r="G7">
-        <v>2960</v>
+        <v>2970</v>
       </c>
       <c r="H7">
-        <v>6482</v>
+        <v>6492</v>
       </c>
       <c r="I7">
-        <v>7262</v>
+        <v>7272</v>
       </c>
       <c r="J7">
-        <v>11222</v>
+        <v>11232</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -636,31 +636,31 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>-54</v>
+        <v>-44</v>
       </c>
       <c r="C8">
-        <v>-4704</v>
+        <v>-4694</v>
       </c>
       <c r="D8">
-        <v>7046</v>
+        <v>7056</v>
       </c>
       <c r="E8">
-        <v>3722</v>
+        <v>3732</v>
       </c>
       <c r="F8">
-        <v>8998</v>
+        <v>9008</v>
       </c>
       <c r="G8">
-        <v>4226</v>
+        <v>4236</v>
       </c>
       <c r="H8">
-        <v>3848</v>
+        <v>3858</v>
       </c>
       <c r="I8">
-        <v>11084</v>
+        <v>11094</v>
       </c>
       <c r="J8">
-        <v>5368</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -668,31 +668,31 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>-2126</v>
+        <v>-2116</v>
       </c>
       <c r="C9">
-        <v>-5794</v>
+        <v>-5784</v>
       </c>
       <c r="D9">
-        <v>6196</v>
+        <v>6206</v>
       </c>
       <c r="E9">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F9">
-        <v>7612</v>
+        <v>7622</v>
       </c>
       <c r="G9">
-        <v>-602</v>
+        <v>-592</v>
       </c>
       <c r="H9">
-        <v>4558</v>
+        <v>4568</v>
       </c>
       <c r="I9">
-        <v>4086</v>
+        <v>4096</v>
       </c>
       <c r="J9">
-        <v>-138</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -700,31 +700,31 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>-3056</v>
+        <v>-3046</v>
       </c>
       <c r="C10">
-        <v>-6284</v>
+        <v>-6274</v>
       </c>
       <c r="D10">
-        <v>2084</v>
+        <v>2094</v>
       </c>
       <c r="E10">
-        <v>1208</v>
+        <v>1218</v>
       </c>
       <c r="F10">
-        <v>8200</v>
+        <v>8210</v>
       </c>
       <c r="G10">
-        <v>4486</v>
+        <v>4496</v>
       </c>
       <c r="H10">
-        <v>7012</v>
+        <v>7022</v>
       </c>
       <c r="I10">
-        <v>1854</v>
+        <v>1864</v>
       </c>
       <c r="J10">
-        <v>814</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -732,31 +732,31 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>-1282</v>
+        <v>-1272</v>
       </c>
       <c r="C11">
-        <v>-4894</v>
+        <v>-4884</v>
       </c>
       <c r="D11">
-        <v>4674</v>
+        <v>4684</v>
       </c>
       <c r="E11">
-        <v>-294</v>
+        <v>-284</v>
       </c>
       <c r="F11">
-        <v>4694</v>
+        <v>4704</v>
       </c>
       <c r="G11">
-        <v>3094</v>
+        <v>3104</v>
       </c>
       <c r="H11">
-        <v>4258</v>
+        <v>4268</v>
       </c>
       <c r="I11">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="J11">
-        <v>2582</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -764,31 +764,31 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <v>-2808</v>
+        <v>-2798</v>
       </c>
       <c r="C12">
-        <v>-1228</v>
+        <v>-1218</v>
       </c>
       <c r="D12">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="E12">
-        <v>1664</v>
+        <v>1674</v>
       </c>
       <c r="F12">
-        <v>6116</v>
+        <v>6126</v>
       </c>
       <c r="G12">
-        <v>4276</v>
+        <v>4286</v>
       </c>
       <c r="H12">
-        <v>5670</v>
+        <v>5680</v>
       </c>
       <c r="I12">
-        <v>-1816</v>
+        <v>-1806</v>
       </c>
       <c r="J12">
-        <v>3516</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -796,31 +796,31 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>-2786</v>
+        <v>-2776</v>
       </c>
       <c r="C13">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="D13">
-        <v>2782</v>
+        <v>2792</v>
       </c>
       <c r="E13">
-        <v>-2472</v>
+        <v>-2462</v>
       </c>
       <c r="F13">
-        <v>5992</v>
+        <v>6002</v>
       </c>
       <c r="G13">
-        <v>5434</v>
+        <v>5444</v>
       </c>
       <c r="H13">
-        <v>5736</v>
+        <v>5746</v>
       </c>
       <c r="I13">
-        <v>-4078</v>
+        <v>-4068</v>
       </c>
       <c r="J13">
-        <v>6912</v>
+        <v>6922</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -828,31 +828,31 @@
         <v>65</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C14">
-        <v>1058</v>
+        <v>1068</v>
       </c>
       <c r="D14">
-        <v>4192</v>
+        <v>4202</v>
       </c>
       <c r="E14">
-        <v>-524</v>
+        <v>-514</v>
       </c>
       <c r="F14">
-        <v>5848</v>
+        <v>5858</v>
       </c>
       <c r="G14">
-        <v>4720</v>
+        <v>4730</v>
       </c>
       <c r="H14">
-        <v>5334</v>
+        <v>5344</v>
       </c>
       <c r="I14">
-        <v>-2570</v>
+        <v>-2560</v>
       </c>
       <c r="J14">
-        <v>5568</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -860,31 +860,31 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>-2656</v>
+        <v>-2646</v>
       </c>
       <c r="C15">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="D15">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E15">
-        <v>-252</v>
+        <v>-242</v>
       </c>
       <c r="F15">
-        <v>7080</v>
+        <v>7090</v>
       </c>
       <c r="G15">
-        <v>8512</v>
+        <v>8522</v>
       </c>
       <c r="H15">
-        <v>9020</v>
+        <v>9030</v>
       </c>
       <c r="I15">
-        <v>-1910</v>
+        <v>-1900</v>
       </c>
       <c r="J15">
-        <v>5078</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -892,31 +892,31 @@
         <v>75</v>
       </c>
       <c r="B16">
-        <v>-2712</v>
+        <v>-2702</v>
       </c>
       <c r="C16">
-        <v>-74</v>
+        <v>-64</v>
       </c>
       <c r="D16">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="E16">
-        <v>-2666</v>
+        <v>-2656</v>
       </c>
       <c r="F16">
-        <v>7492</v>
+        <v>7502</v>
       </c>
       <c r="G16">
-        <v>5082</v>
+        <v>5092</v>
       </c>
       <c r="H16">
-        <v>8852</v>
+        <v>8862</v>
       </c>
       <c r="I16">
-        <v>-1116</v>
+        <v>-1106</v>
       </c>
       <c r="J16">
-        <v>1892</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -924,31 +924,31 @@
         <v>80</v>
       </c>
       <c r="B17">
-        <v>-1948</v>
+        <v>-1938</v>
       </c>
       <c r="C17">
-        <v>3006</v>
+        <v>3016</v>
       </c>
       <c r="D17">
-        <v>2700</v>
+        <v>2710</v>
       </c>
       <c r="E17">
-        <v>-7460</v>
+        <v>-7450</v>
       </c>
       <c r="F17">
-        <v>8426</v>
+        <v>8436</v>
       </c>
       <c r="G17">
-        <v>10022</v>
+        <v>10032</v>
       </c>
       <c r="H17">
-        <v>7218</v>
+        <v>7228</v>
       </c>
       <c r="I17">
-        <v>-204</v>
+        <v>-194</v>
       </c>
       <c r="J17">
-        <v>1174</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -956,31 +956,31 @@
         <v>85</v>
       </c>
       <c r="B18">
-        <v>-802</v>
+        <v>-792</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>3290</v>
+        <v>3300</v>
       </c>
       <c r="E18">
-        <v>-5552</v>
+        <v>-5542</v>
       </c>
       <c r="F18">
-        <v>12332</v>
+        <v>12342</v>
       </c>
       <c r="G18">
-        <v>6102</v>
+        <v>6112</v>
       </c>
       <c r="H18">
-        <v>9562</v>
+        <v>9572</v>
       </c>
       <c r="I18">
-        <v>2922</v>
+        <v>2932</v>
       </c>
       <c r="J18">
-        <v>792</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
